--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_7_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_7_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-448083.1397646997</v>
+        <v>-450940.9520840392</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9777368.694373157</v>
+        <v>9777368.694373144</v>
       </c>
     </row>
     <row r="8">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>145.2578297840783</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>227.4975979259443</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>138.9103733082914</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>54.03223542166973</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>36.39183767369501</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>303.8211750728804</v>
+        <v>314.976045976244</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -953,16 +953,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>52.5252749809794</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>227.6921587098635</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>344.7148054157782</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448612</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1187,13 +1187,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>96.95377689311829</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,16 +1300,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>129.0666178516132</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,28 +1333,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>110.450206127258</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710057</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1385,7 +1385,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>211.5253521301642</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -1421,7 +1421,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>120.8355578824667</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1528,13 +1528,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,10 +1543,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>157.7822070347172</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>100.5810106034565</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127567</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H14" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045444</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081956</v>
+        <v>84.61259060081974</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561454</v>
+        <v>84.02406320561458</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.4255876952162</v>
+        <v>117.4255876952163</v>
       </c>
       <c r="T15" t="n">
         <v>188.3907690366107</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>23.94516103140226</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108366</v>
       </c>
       <c r="S16" t="n">
         <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4819944627618</v>
+        <v>158.4006036819975</v>
       </c>
       <c r="U16" t="n">
         <v>286.1854515484204</v>
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H17" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045444</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>84.61259060081956</v>
+        <v>84.61259060081974</v>
       </c>
       <c r="T17" t="n">
         <v>199.1970568374742</v>
@@ -1938,7 +1938,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H18" t="n">
-        <v>84.02406320561454</v>
+        <v>84.02406320561458</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.4255876952162</v>
+        <v>117.4255876952163</v>
       </c>
       <c r="T18" t="n">
         <v>188.3907690366107</v>
@@ -2005,10 +2005,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>69.94319885314967</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
-        <v>81.80457674440898</v>
+        <v>81.80457674440909</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>67.18075159108366</v>
       </c>
       <c r="S19" t="n">
-        <v>181.338488358459</v>
+        <v>35.12050850037735</v>
       </c>
       <c r="T19" t="n">
         <v>217.4819944627618</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2093,10 +2093,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H20" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045444</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.61259060081949</v>
+        <v>84.61259060081974</v>
       </c>
       <c r="T20" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U20" t="n">
         <v>250.9088959876463</v>
@@ -2175,7 +2175,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>84.02406320561452</v>
+        <v>84.02406320561458</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.4255876952162</v>
+        <v>117.4255876952163</v>
       </c>
       <c r="T21" t="n">
         <v>188.3907690366107</v>
@@ -2245,16 +2245,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>3.132302579347652</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.3384883584589</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4819944627618</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>164.9977466052723</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2330,10 +2330,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H23" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045445</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>84.61259060081956</v>
+        <v>84.61259060082001</v>
       </c>
       <c r="T23" t="n">
         <v>199.1970568374742</v>
@@ -2412,7 +2412,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H24" t="n">
-        <v>84.02406320561454</v>
+        <v>84.02406320561465</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>117.4255876952162</v>
+        <v>117.4255876952164</v>
       </c>
       <c r="T24" t="n">
         <v>188.3907690366107</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>5.313812950980709</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>87.56163230992718</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.80457674440898</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.338488358459</v>
+        <v>181.3384883584591</v>
       </c>
       <c r="T25" t="n">
         <v>217.4819944627618</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444154</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>229.2938944146487</v>
+        <v>220.9731342426612</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>0.6324680438218387</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3007,7 +3007,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>60.42721558712923</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>14.90335196317894</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3664,22 +3664,22 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.330825526173</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308922</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4138,10 +4138,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1099.292566481063</v>
+        <v>1550.991915879943</v>
       </c>
       <c r="C2" t="n">
-        <v>952.5674858910851</v>
+        <v>1182.029398939532</v>
       </c>
       <c r="D2" t="n">
-        <v>952.5674858910851</v>
+        <v>823.7637003327811</v>
       </c>
       <c r="E2" t="n">
-        <v>952.5674858910851</v>
+        <v>437.9754477345369</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>208.1798942739871</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>194.256490212578</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4358,22 +4358,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W2" t="n">
-        <v>1485.892406545185</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="X2" t="n">
-        <v>1485.892406545185</v>
+        <v>1937.591755944065</v>
       </c>
       <c r="Y2" t="n">
-        <v>1485.892406545185</v>
+        <v>1937.591755944065</v>
       </c>
     </row>
     <row r="3">
@@ -4401,7 +4401,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,13 +4410,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>509.7210873825632</v>
+        <v>256.4340909802017</v>
       </c>
       <c r="C4" t="n">
-        <v>509.7210873825632</v>
+        <v>256.4340909802017</v>
       </c>
       <c r="D4" t="n">
-        <v>359.6044479702274</v>
+        <v>256.4340909802017</v>
       </c>
       <c r="E4" t="n">
-        <v>211.6913543878343</v>
+        <v>108.5209973978086</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>108.5209973978086</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>108.5209973978086</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="T4" t="n">
-        <v>691.3695522128029</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="U4" t="n">
-        <v>691.3695522128029</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="V4" t="n">
-        <v>691.3695522128029</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="W4" t="n">
-        <v>691.3695522128029</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="X4" t="n">
-        <v>691.3695522128029</v>
+        <v>256.4340909802017</v>
       </c>
       <c r="Y4" t="n">
-        <v>691.3695522128029</v>
+        <v>256.4340909802017</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1130.084661047915</v>
+        <v>1322.340737411353</v>
       </c>
       <c r="C5" t="n">
-        <v>1130.084661047915</v>
+        <v>1322.340737411353</v>
       </c>
       <c r="D5" t="n">
-        <v>771.8189624411643</v>
+        <v>1322.340737411353</v>
       </c>
       <c r="E5" t="n">
-        <v>771.8189624411643</v>
+        <v>936.5524848131085</v>
       </c>
       <c r="F5" t="n">
-        <v>360.8330576515568</v>
+        <v>525.566580023501</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990286</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.752638628377</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>1893.689751284806</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W5" t="n">
-        <v>1893.689751284806</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="X5" t="n">
-        <v>1520.223993023727</v>
+        <v>1322.340737411353</v>
       </c>
       <c r="Y5" t="n">
-        <v>1130.084661047915</v>
+        <v>1322.340737411353</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4641,7 +4641,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4656,31 +4656,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>204.0596212327002</v>
+        <v>498.1369047015218</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>498.1369047015218</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>645.6562317459358</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>431.3678085640985</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>204.0596212327002</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>204.0596212327002</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>204.0596212327002</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>204.0596212327002</v>
+        <v>498.1369047015218</v>
       </c>
       <c r="X7" t="n">
-        <v>204.0596212327002</v>
+        <v>498.1369047015218</v>
       </c>
       <c r="Y7" t="n">
-        <v>204.0596212327002</v>
+        <v>498.1369047015218</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2149.375138862102</v>
+        <v>1640.777806202927</v>
       </c>
       <c r="C8" t="n">
-        <v>1780.41262192169</v>
+        <v>1640.777806202927</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>1282.512107596176</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>896.7238549979318</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4805,10 +4805,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4817,7 +4817,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
@@ -4835,19 +4835,19 @@
         <v>2247.308246834949</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834949</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V8" t="n">
-        <v>2149.375138862102</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="W8" t="n">
-        <v>2149.375138862102</v>
+        <v>1640.777806202927</v>
       </c>
       <c r="X8" t="n">
-        <v>2149.375138862102</v>
+        <v>1640.777806202927</v>
       </c>
       <c r="Y8" t="n">
-        <v>2149.375138862102</v>
+        <v>1640.777806202927</v>
       </c>
     </row>
     <row r="9">
@@ -4887,7 +4887,7 @@
         <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571351</v>
+        <v>713.806220357135</v>
       </c>
       <c r="M9" t="n">
         <v>1237.953133915166</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>211.6913543878343</v>
+        <v>500.1394333084172</v>
       </c>
       <c r="C10" t="n">
-        <v>211.6913543878343</v>
+        <v>331.2032503805103</v>
       </c>
       <c r="D10" t="n">
-        <v>211.6913543878343</v>
+        <v>331.2032503805103</v>
       </c>
       <c r="E10" t="n">
-        <v>211.6913543878343</v>
+        <v>331.2032503805103</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>184.3133028826</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>184.3133028826</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>184.3133028826</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036446</v>
@@ -4972,40 +4972,40 @@
         <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942406</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942406</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T10" t="n">
-        <v>323.2572191628424</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U10" t="n">
-        <v>323.2572191628424</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V10" t="n">
-        <v>211.6913543878343</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="W10" t="n">
-        <v>211.6913543878343</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="X10" t="n">
-        <v>211.6913543878343</v>
+        <v>500.1394333084172</v>
       </c>
       <c r="Y10" t="n">
-        <v>211.6913543878343</v>
+        <v>500.1394333084172</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2288.582041850806</v>
+        <v>2372.503670393387</v>
       </c>
       <c r="C11" t="n">
-        <v>1919.619524910395</v>
+        <v>2003.541153452977</v>
       </c>
       <c r="D11" t="n">
-        <v>1561.353826303644</v>
+        <v>1645.275454846226</v>
       </c>
       <c r="E11" t="n">
-        <v>1175.5655737054</v>
+        <v>1259.487202247982</v>
       </c>
       <c r="F11" t="n">
-        <v>764.5796689157926</v>
+        <v>848.5012974583746</v>
       </c>
       <c r="G11" t="n">
-        <v>349.507218760789</v>
+        <v>433.4288473033711</v>
       </c>
       <c r="H11" t="n">
         <v>135.8452469121383</v>
       </c>
       <c r="I11" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J11" t="n">
-        <v>450.1331281309855</v>
+        <v>282.7274791106325</v>
       </c>
       <c r="K11" t="n">
-        <v>1104.856460266285</v>
+        <v>616.546852800479</v>
       </c>
       <c r="L11" t="n">
-        <v>1555.890673514694</v>
+        <v>1481.065668453834</v>
       </c>
       <c r="M11" t="n">
-        <v>2089.422578186618</v>
+        <v>2459.615971283662</v>
       </c>
       <c r="N11" t="n">
-        <v>2636.201395245401</v>
+        <v>3439.368243510309</v>
       </c>
       <c r="O11" t="n">
-        <v>3396.507795393362</v>
+        <v>3990.33961291069</v>
       </c>
       <c r="P11" t="n">
-        <v>4109.862882840308</v>
+        <v>4385.113979267868</v>
       </c>
       <c r="Q11" t="n">
-        <v>4568.341085349296</v>
+        <v>4633.40034102355</v>
       </c>
       <c r="R11" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S11" t="n">
-        <v>4582.126739107446</v>
+        <v>4582.126739107447</v>
       </c>
       <c r="T11" t="n">
-        <v>4376.148991491668</v>
+        <v>4460.070620034248</v>
       </c>
       <c r="U11" t="n">
-        <v>4122.618514765505</v>
+        <v>4206.540143308085</v>
       </c>
       <c r="V11" t="n">
-        <v>3791.555627421934</v>
+        <v>3875.477255964514</v>
       </c>
       <c r="W11" t="n">
-        <v>3438.78697215182</v>
+        <v>3522.7086006944</v>
       </c>
       <c r="X11" t="n">
-        <v>3065.32121389074</v>
+        <v>3149.24284243332</v>
       </c>
       <c r="Y11" t="n">
-        <v>2675.181881914928</v>
+        <v>2759.103510457508</v>
       </c>
     </row>
     <row r="12">
@@ -5109,19 +5109,19 @@
         <v>339.7206342795828</v>
       </c>
       <c r="G12" t="n">
-        <v>203.3575341122016</v>
+        <v>203.3575341122014</v>
       </c>
       <c r="H12" t="n">
-        <v>112.8556397500693</v>
+        <v>112.8556397500688</v>
       </c>
       <c r="I12" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J12" t="n">
-        <v>187.525617642224</v>
+        <v>187.5256176422244</v>
       </c>
       <c r="K12" t="n">
-        <v>425.7898166225711</v>
+        <v>425.7898166225714</v>
       </c>
       <c r="L12" t="n">
         <v>792.4879769352365</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>875.4070481974342</v>
+        <v>651.9839962385953</v>
       </c>
       <c r="C13" t="n">
-        <v>706.4708652695273</v>
+        <v>651.9839962385953</v>
       </c>
       <c r="D13" t="n">
-        <v>556.3542258571915</v>
+        <v>651.9839962385953</v>
       </c>
       <c r="E13" t="n">
-        <v>408.4411322747984</v>
+        <v>651.9839962385953</v>
       </c>
       <c r="F13" t="n">
-        <v>261.5511847768881</v>
+        <v>505.0940487406849</v>
       </c>
       <c r="G13" t="n">
-        <v>93.84834815160703</v>
+        <v>337.3912121154039</v>
       </c>
       <c r="H13" t="n">
-        <v>93.84834815160703</v>
+        <v>191.1740253332617</v>
       </c>
       <c r="I13" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J13" t="n">
         <v>138.9709805985426</v>
@@ -5221,28 +5221,28 @@
         <v>1954.630779807916</v>
       </c>
       <c r="R13" t="n">
-        <v>1954.630779807916</v>
+        <v>1864.800322565445</v>
       </c>
       <c r="S13" t="n">
-        <v>1795.254813106182</v>
+        <v>1673.114438392271</v>
       </c>
       <c r="T13" t="n">
-        <v>1795.254813106182</v>
+        <v>1571.517457984739</v>
       </c>
       <c r="U13" t="n">
-        <v>1795.254813106182</v>
+        <v>1282.414591110382</v>
       </c>
       <c r="V13" t="n">
-        <v>1795.254813106182</v>
+        <v>1282.414591110382</v>
       </c>
       <c r="W13" t="n">
-        <v>1505.837643069221</v>
+        <v>1282.414591110382</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.848092171204</v>
+        <v>1054.425040212365</v>
       </c>
       <c r="Y13" t="n">
-        <v>1057.055513027674</v>
+        <v>833.632461068835</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C14" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D14" t="n">
-        <v>1591.032978284207</v>
+        <v>1591.032978284209</v>
       </c>
       <c r="E14" t="n">
-        <v>1205.244725685963</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F14" t="n">
-        <v>794.2588208963555</v>
+        <v>794.2588208963568</v>
       </c>
       <c r="G14" t="n">
-        <v>380.2757138127628</v>
+        <v>380.2757138127632</v>
       </c>
       <c r="H14" t="n">
-        <v>93.84834815160691</v>
+        <v>93.84834815160724</v>
       </c>
       <c r="I14" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J14" t="n">
-        <v>373.3442236507203</v>
+        <v>424.1437450015258</v>
       </c>
       <c r="K14" t="n">
-        <v>842.9746074384025</v>
+        <v>893.774128789207</v>
       </c>
       <c r="L14" t="n">
-        <v>1462.494387944178</v>
+        <v>1513.293909294981</v>
       </c>
       <c r="M14" t="n">
-        <v>2183.498949883216</v>
+        <v>2234.298471234018</v>
       </c>
       <c r="N14" t="n">
-        <v>2920.783927800323</v>
+        <v>2971.583449151123</v>
       </c>
       <c r="O14" t="n">
-        <v>3654.445485610256</v>
+        <v>3654.44548561026</v>
       </c>
       <c r="P14" t="n">
-        <v>4202.751434297605</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q14" t="n">
-        <v>4566.333620403612</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R14" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T14" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U14" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V14" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W14" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X14" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H15" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I15" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J15" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="K15" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="L15" t="n">
-        <v>142.6767696327835</v>
+        <v>584.5806809953579</v>
       </c>
       <c r="M15" t="n">
-        <v>734.6951238849115</v>
+        <v>1176.599035247485</v>
       </c>
       <c r="N15" t="n">
-        <v>1356.791087284248</v>
+        <v>1798.69499864682</v>
       </c>
       <c r="O15" t="n">
-        <v>1903.667562284443</v>
+        <v>2345.571473647014</v>
       </c>
       <c r="P15" t="n">
-        <v>2323.251080710519</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.812354695766</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>562.955059989097</v>
+        <v>554.7738874534193</v>
       </c>
       <c r="C16" t="n">
-        <v>538.7680286442462</v>
+        <v>385.8377045255124</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6513892319105</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7382956495174</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="F16" t="n">
-        <v>93.84834815160703</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="G16" t="n">
-        <v>93.84834815160703</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H16" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I16" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J16" t="n">
-        <v>172.830471041161</v>
+        <v>172.8304710411608</v>
       </c>
       <c r="K16" t="n">
-        <v>432.4591980117249</v>
+        <v>432.4591980117242</v>
       </c>
       <c r="L16" t="n">
-        <v>820.2210160948594</v>
+        <v>820.2210160948581</v>
       </c>
       <c r="M16" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139316</v>
       </c>
       <c r="N16" t="n">
         <v>1654.146473931023</v>
       </c>
       <c r="O16" t="n">
-        <v>2021.168930946053</v>
+        <v>2021.168930946052</v>
       </c>
       <c r="P16" t="n">
-        <v>2311.699365782258</v>
+        <v>2311.699365782256</v>
       </c>
       <c r="Q16" t="n">
-        <v>2429.412499335693</v>
+        <v>2429.412499335691</v>
       </c>
       <c r="R16" t="n">
-        <v>2429.412499335693</v>
+        <v>2361.553154294193</v>
       </c>
       <c r="S16" t="n">
-        <v>2246.242309074623</v>
+        <v>2178.382964033123</v>
       </c>
       <c r="T16" t="n">
-        <v>2026.563526789005</v>
+        <v>2018.382354253327</v>
       </c>
       <c r="U16" t="n">
-        <v>1737.487313103732</v>
+        <v>1729.306140568054</v>
       </c>
       <c r="V16" t="n">
-        <v>1482.802824897845</v>
+        <v>1474.621652362167</v>
       </c>
       <c r="W16" t="n">
-        <v>1193.385654860884</v>
+        <v>1185.204482325207</v>
       </c>
       <c r="X16" t="n">
-        <v>965.3961039628668</v>
+        <v>957.2149314271892</v>
       </c>
       <c r="Y16" t="n">
-        <v>744.6035248193367</v>
+        <v>736.4223522836591</v>
       </c>
     </row>
     <row r="17">
@@ -5504,43 +5504,43 @@
         <v>794.2588208963566</v>
       </c>
       <c r="G17" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127632</v>
       </c>
       <c r="H17" t="n">
-        <v>93.84834815160673</v>
+        <v>93.84834815160724</v>
       </c>
       <c r="I17" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J17" t="n">
-        <v>373.3442236507203</v>
+        <v>373.3442236507196</v>
       </c>
       <c r="K17" t="n">
-        <v>842.9746074384025</v>
+        <v>842.9746074384009</v>
       </c>
       <c r="L17" t="n">
-        <v>1462.494387944178</v>
+        <v>1462.494387944175</v>
       </c>
       <c r="M17" t="n">
-        <v>2183.498949883216</v>
+        <v>2183.498949883211</v>
       </c>
       <c r="N17" t="n">
-        <v>2920.783927800323</v>
+        <v>2971.583449151123</v>
       </c>
       <c r="O17" t="n">
-        <v>3603.645964259462</v>
+        <v>3654.44548561026</v>
       </c>
       <c r="P17" t="n">
-        <v>4151.95191294681</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q17" t="n">
-        <v>4515.534099052818</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R17" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T17" t="n">
         <v>4405.740996026519</v>
@@ -5586,31 +5586,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H18" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I18" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J18" t="n">
-        <v>93.84834815160703</v>
+        <v>241.4963299034527</v>
       </c>
       <c r="K18" t="n">
-        <v>424.3570907149661</v>
+        <v>572.005072466811</v>
       </c>
       <c r="L18" t="n">
-        <v>424.3570907149661</v>
+        <v>1062.737405310562</v>
       </c>
       <c r="M18" t="n">
-        <v>1016.375444967094</v>
+        <v>1654.755759562689</v>
       </c>
       <c r="N18" t="n">
-        <v>1638.471408366431</v>
+        <v>2276.851722962024</v>
       </c>
       <c r="O18" t="n">
-        <v>2185.347883366625</v>
+        <v>2276.851722962024</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.812354695766</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.812354695766</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>562.9550599890997</v>
+        <v>932.207814134136</v>
       </c>
       <c r="C19" t="n">
-        <v>394.0188770611928</v>
+        <v>763.2716312062291</v>
       </c>
       <c r="D19" t="n">
-        <v>323.3691812499305</v>
+        <v>613.1549917938934</v>
       </c>
       <c r="E19" t="n">
-        <v>323.3691812499305</v>
+        <v>465.2418982115003</v>
       </c>
       <c r="F19" t="n">
-        <v>176.4792337520201</v>
+        <v>318.3519507135899</v>
       </c>
       <c r="G19" t="n">
-        <v>176.4792337520201</v>
+        <v>318.3519507135899</v>
       </c>
       <c r="H19" t="n">
-        <v>176.4792337520201</v>
+        <v>176.4792337520203</v>
       </c>
       <c r="I19" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J19" t="n">
-        <v>172.830471041161</v>
+        <v>172.8304710411608</v>
       </c>
       <c r="K19" t="n">
-        <v>432.4591980117249</v>
+        <v>432.4591980117242</v>
       </c>
       <c r="L19" t="n">
-        <v>820.2210160948594</v>
+        <v>820.2210160948581</v>
       </c>
       <c r="M19" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139317</v>
       </c>
       <c r="N19" t="n">
-        <v>1654.146473931026</v>
+        <v>1654.146473931024</v>
       </c>
       <c r="O19" t="n">
-        <v>2021.168930946056</v>
+        <v>2021.168930946053</v>
       </c>
       <c r="P19" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782257</v>
       </c>
       <c r="Q19" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335692</v>
       </c>
       <c r="R19" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294194</v>
       </c>
       <c r="S19" t="n">
-        <v>2246.242309074626</v>
+        <v>2326.077893182701</v>
       </c>
       <c r="T19" t="n">
-        <v>2026.563526789008</v>
+        <v>2106.399110897083</v>
       </c>
       <c r="U19" t="n">
-        <v>1737.487313103735</v>
+        <v>1817.32289721181</v>
       </c>
       <c r="V19" t="n">
-        <v>1482.802824897848</v>
+        <v>1562.638409005923</v>
       </c>
       <c r="W19" t="n">
-        <v>1193.385654860887</v>
+        <v>1562.638409005923</v>
       </c>
       <c r="X19" t="n">
-        <v>965.3961039628696</v>
+        <v>1334.648858107906</v>
       </c>
       <c r="Y19" t="n">
-        <v>744.6035248193394</v>
+        <v>1113.856278964376</v>
       </c>
     </row>
     <row r="20">
@@ -5741,43 +5741,43 @@
         <v>794.2588208963566</v>
       </c>
       <c r="G20" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127632</v>
       </c>
       <c r="H20" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160724</v>
       </c>
       <c r="I20" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J20" t="n">
-        <v>424.1437450015126</v>
+        <v>373.3442236507196</v>
       </c>
       <c r="K20" t="n">
-        <v>893.7741287891952</v>
+        <v>842.9746074384009</v>
       </c>
       <c r="L20" t="n">
-        <v>1513.293909294971</v>
+        <v>1462.494387944175</v>
       </c>
       <c r="M20" t="n">
-        <v>2234.298471234009</v>
+        <v>2183.498949883211</v>
       </c>
       <c r="N20" t="n">
-        <v>2971.583449151116</v>
+        <v>2920.783927800317</v>
       </c>
       <c r="O20" t="n">
-        <v>3654.445485610256</v>
+        <v>3603.645964259454</v>
       </c>
       <c r="P20" t="n">
-        <v>4202.751434297605</v>
+        <v>4151.951912946802</v>
       </c>
       <c r="Q20" t="n">
-        <v>4566.333620403612</v>
+        <v>4515.534099052808</v>
       </c>
       <c r="R20" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T20" t="n">
         <v>4405.740996026519</v>
@@ -5823,31 +5823,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H21" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I21" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J21" t="n">
-        <v>241.4963299034533</v>
+        <v>241.4963299034527</v>
       </c>
       <c r="K21" t="n">
-        <v>572.0050724668126</v>
+        <v>572.005072466811</v>
       </c>
       <c r="L21" t="n">
-        <v>764.7727330321189</v>
+        <v>1062.737405310562</v>
       </c>
       <c r="M21" t="n">
-        <v>1356.791087284247</v>
+        <v>1654.755759562689</v>
       </c>
       <c r="N21" t="n">
-        <v>1356.791087284247</v>
+        <v>1654.755759562689</v>
       </c>
       <c r="O21" t="n">
-        <v>1903.667562284443</v>
+        <v>1903.667562284444</v>
       </c>
       <c r="P21" t="n">
-        <v>2323.251080710519</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.812354695766</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>562.9550599891011</v>
+        <v>868.8780297767509</v>
       </c>
       <c r="C22" t="n">
-        <v>394.0188770611942</v>
+        <v>699.941846848844</v>
       </c>
       <c r="D22" t="n">
-        <v>243.9022376488585</v>
+        <v>549.8252074365082</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7382956495174</v>
+        <v>549.8252074365082</v>
       </c>
       <c r="F22" t="n">
-        <v>93.84834815160703</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="G22" t="n">
-        <v>93.84834815160703</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H22" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I22" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J22" t="n">
-        <v>172.8304710411611</v>
+        <v>172.8304710411608</v>
       </c>
       <c r="K22" t="n">
-        <v>432.4591980117251</v>
+        <v>432.4591980117242</v>
       </c>
       <c r="L22" t="n">
-        <v>820.2210160948597</v>
+        <v>820.2210160948581</v>
       </c>
       <c r="M22" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139317</v>
       </c>
       <c r="N22" t="n">
-        <v>1654.146473931027</v>
+        <v>1654.146473931024</v>
       </c>
       <c r="O22" t="n">
-        <v>2021.168930946057</v>
+        <v>2021.168930946053</v>
       </c>
       <c r="P22" t="n">
-        <v>2311.699365782261</v>
+        <v>2311.699365782257</v>
       </c>
       <c r="Q22" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335692</v>
       </c>
       <c r="R22" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335692</v>
       </c>
       <c r="S22" t="n">
-        <v>2246.242309074627</v>
+        <v>2429.412499335692</v>
       </c>
       <c r="T22" t="n">
-        <v>2026.563526789009</v>
+        <v>2209.733717050074</v>
       </c>
       <c r="U22" t="n">
-        <v>1737.487313103736</v>
+        <v>1920.657503364801</v>
       </c>
       <c r="V22" t="n">
-        <v>1482.802824897849</v>
+        <v>1665.973015158914</v>
       </c>
       <c r="W22" t="n">
-        <v>1193.385654860888</v>
+        <v>1499.308624648538</v>
       </c>
       <c r="X22" t="n">
-        <v>965.3961039628709</v>
+        <v>1271.319073750521</v>
       </c>
       <c r="Y22" t="n">
-        <v>744.6035248193408</v>
+        <v>1050.526494606991</v>
       </c>
     </row>
     <row r="23">
@@ -5963,55 +5963,55 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C23" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D23" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284209</v>
       </c>
       <c r="E23" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685965</v>
       </c>
       <c r="F23" t="n">
-        <v>794.2588208963563</v>
+        <v>794.2588208963571</v>
       </c>
       <c r="G23" t="n">
-        <v>380.2757138127628</v>
+        <v>380.2757138127636</v>
       </c>
       <c r="H23" t="n">
-        <v>93.84834815160696</v>
+        <v>93.84834815160777</v>
       </c>
       <c r="I23" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J23" t="n">
-        <v>373.3442236507203</v>
+        <v>373.3442236507186</v>
       </c>
       <c r="K23" t="n">
-        <v>842.9746074384025</v>
+        <v>842.9746074383984</v>
       </c>
       <c r="L23" t="n">
-        <v>1462.494387944178</v>
+        <v>1462.494387944171</v>
       </c>
       <c r="M23" t="n">
-        <v>2183.498949883216</v>
+        <v>2183.498949883205</v>
       </c>
       <c r="N23" t="n">
-        <v>2920.783927800323</v>
+        <v>2920.783927800308</v>
       </c>
       <c r="O23" t="n">
-        <v>3603.645964259462</v>
+        <v>3654.445485610265</v>
       </c>
       <c r="P23" t="n">
-        <v>4202.751434297605</v>
+        <v>4202.751434297611</v>
       </c>
       <c r="Q23" t="n">
-        <v>4566.333620403612</v>
+        <v>4566.333620403616</v>
       </c>
       <c r="R23" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580353</v>
       </c>
       <c r="S23" t="n">
         <v>4606.950144347201</v>
@@ -6020,19 +6020,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U23" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V23" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W23" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X23" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="24">
@@ -6042,61 +6042,61 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>943.6608414294086</v>
+        <v>943.6608414294088</v>
       </c>
       <c r="C24" t="n">
-        <v>769.2078121482816</v>
+        <v>769.2078121482818</v>
       </c>
       <c r="D24" t="n">
-        <v>620.2734024870304</v>
+        <v>620.2734024870306</v>
       </c>
       <c r="E24" t="n">
-        <v>461.0359474815749</v>
+        <v>461.035947481575</v>
       </c>
       <c r="F24" t="n">
-        <v>314.5013895084599</v>
+        <v>314.50138950846</v>
       </c>
       <c r="G24" t="n">
-        <v>178.7211392683894</v>
+        <v>178.7211392683895</v>
       </c>
       <c r="H24" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I24" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J24" t="n">
-        <v>93.84834815160703</v>
+        <v>241.4963299034522</v>
       </c>
       <c r="K24" t="n">
-        <v>424.3570907149661</v>
+        <v>572.0050724668096</v>
       </c>
       <c r="L24" t="n">
-        <v>424.3570907149661</v>
+        <v>1062.737405310559</v>
       </c>
       <c r="M24" t="n">
-        <v>734.6951238849115</v>
+        <v>1587.352361269501</v>
       </c>
       <c r="N24" t="n">
-        <v>1356.791087284248</v>
+        <v>1587.352361269501</v>
       </c>
       <c r="O24" t="n">
-        <v>1903.667562284443</v>
+        <v>2134.228836269693</v>
       </c>
       <c r="P24" t="n">
-        <v>2323.251080710519</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.812354695766</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="R24" t="n">
-        <v>2553.812354695766</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="S24" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T24" t="n">
-        <v>2244.906943855537</v>
+        <v>2244.906943855538</v>
       </c>
       <c r="U24" t="n">
         <v>2016.877442379908</v>
@@ -6108,7 +6108,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X24" t="n">
-        <v>1319.63647721443</v>
+        <v>1319.636477214431</v>
       </c>
       <c r="Y24" t="n">
         <v>1111.876178449477</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>562.9550599890997</v>
+        <v>562.9550599890908</v>
       </c>
       <c r="C25" t="n">
-        <v>562.9550599890997</v>
+        <v>394.018877061184</v>
       </c>
       <c r="D25" t="n">
-        <v>412.838420576764</v>
+        <v>388.6513892319105</v>
       </c>
       <c r="E25" t="n">
-        <v>264.9253269943708</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="F25" t="n">
-        <v>264.9253269943708</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="G25" t="n">
-        <v>176.4792337520201</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="H25" t="n">
-        <v>176.4792337520201</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I25" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J25" t="n">
-        <v>172.830471041161</v>
+        <v>172.8304710411604</v>
       </c>
       <c r="K25" t="n">
-        <v>432.4591980117249</v>
+        <v>432.4591980117232</v>
       </c>
       <c r="L25" t="n">
-        <v>820.2210160948594</v>
+        <v>820.2210160948563</v>
       </c>
       <c r="M25" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139314</v>
       </c>
       <c r="N25" t="n">
-        <v>1654.146473931026</v>
+        <v>1654.14647393102</v>
       </c>
       <c r="O25" t="n">
-        <v>2021.168930946056</v>
+        <v>2021.168930946049</v>
       </c>
       <c r="P25" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782252</v>
       </c>
       <c r="Q25" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335687</v>
       </c>
       <c r="R25" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335687</v>
       </c>
       <c r="S25" t="n">
-        <v>2246.242309074626</v>
+        <v>2246.242309074617</v>
       </c>
       <c r="T25" t="n">
-        <v>2026.563526789008</v>
+        <v>2026.563526788999</v>
       </c>
       <c r="U25" t="n">
-        <v>1737.487313103735</v>
+        <v>1737.487313103726</v>
       </c>
       <c r="V25" t="n">
-        <v>1482.802824897848</v>
+        <v>1482.802824897839</v>
       </c>
       <c r="W25" t="n">
-        <v>1193.385654860887</v>
+        <v>1193.385654860878</v>
       </c>
       <c r="X25" t="n">
-        <v>965.3961039628696</v>
+        <v>965.3961039628607</v>
       </c>
       <c r="Y25" t="n">
-        <v>744.6035248193394</v>
+        <v>744.6035248193306</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168628</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362702</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,40 +6236,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,16 +6297,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L27" t="n">
         <v>1072.713683962606</v>
@@ -6315,10 +6315,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2222.001901828446</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="29">
@@ -6437,40 +6437,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
@@ -6479,10 +6479,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6540,22 +6540,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>951.3929232910542</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>782.4567403631473</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>632.3401009508116</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1581.823518162841</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1353.833967264824</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1133.041388121294</v>
       </c>
     </row>
     <row r="32">
@@ -6686,31 +6686,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6847,7 +6847,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6938,7 +6938,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7072,22 +7072,22 @@
         <v>695.5020655703109</v>
       </c>
       <c r="C37" t="n">
-        <v>526.5658826424041</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D37" t="n">
-        <v>526.5658826424041</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E37" t="n">
-        <v>378.6527890600109</v>
+        <v>397.4723325755821</v>
       </c>
       <c r="F37" t="n">
-        <v>378.6527890600109</v>
+        <v>250.5823850776717</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>250.5823850776717</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>108.8705539198698</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7166,28 +7166,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>184.7035232280589</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D40" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7385,46 +7385,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>120.680066384834</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>454.6048385560546</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7555,46 +7555,46 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7725,22 +7725,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7798,19 +7798,19 @@
         <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8058,10 +8058,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8304,13 +8304,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>259.9332618874996</v>
+        <v>48.4837358798419</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>51.3126478290971</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>51.31264782908511</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>51.31264782909705</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>51.31264782908602</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>51.31264782908289</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>51.3126478290967</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9650,10 +9650,10 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>51.31264782911228</v>
       </c>
       <c r="P23" t="n">
-        <v>51.31264782908522</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -22547,25 +22547,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>47.36468478827413</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>185.0123994560657</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,10 +22598,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>83.08241225715622</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>83.08241225715336</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23416,13 +23416,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>31.98681829672469</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>118.9679386727126</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>143.3016600672256</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440898</v>
+        <v>81.80457674440909</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108349</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>59.08139078076431</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23893,10 +23893,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>78.67227416506269</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108349</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>146.2179798580817</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>143.3016600672215</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440895</v>
+        <v>81.80457674440909</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108344</v>
+        <v>67.18075159108366</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>121.5252517313187</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>143.3016600672316</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>77.98042056723975</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H25" t="n">
-        <v>140.4539897919539</v>
+        <v>140.453989791954</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.80457674440925</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.18075159108349</v>
+        <v>67.1807515910839</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>57.22910392194231</v>
+        <v>65.54986409392978</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>145.8014946027473</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25087,10 +25087,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25312,25 +25312,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>105.0969227051396</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>66.3624843553866</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1154507.635333292</v>
+        <v>1154507.635333293</v>
       </c>
     </row>
     <row r="7">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>236031.1785465852</v>
+        <v>236031.1785465853</v>
       </c>
       <c r="C2" t="n">
-        <v>266838.5752058924</v>
+        <v>266838.5752058921</v>
       </c>
       <c r="D2" t="n">
-        <v>266838.5752058924</v>
+        <v>266838.5752058923</v>
       </c>
       <c r="E2" t="n">
-        <v>255953.8194714464</v>
+        <v>255953.8194714466</v>
       </c>
       <c r="F2" t="n">
         <v>262171.9675635317</v>
       </c>
       <c r="G2" t="n">
-        <v>262171.9675635318</v>
+        <v>262171.9675635317</v>
       </c>
       <c r="H2" t="n">
         <v>262171.9675635317</v>
       </c>
       <c r="I2" t="n">
-        <v>262171.9675635317</v>
+        <v>262171.9675635316</v>
       </c>
       <c r="J2" t="n">
         <v>262322.644899252</v>
       </c>
       <c r="K2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="L2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="M2" t="n">
         <v>262322.644899252</v>
       </c>
       <c r="N2" t="n">
-        <v>266838.5752058924</v>
+        <v>266838.5752058925</v>
       </c>
       <c r="O2" t="n">
-        <v>266838.5752058921</v>
+        <v>266838.5752058923</v>
       </c>
       <c r="P2" t="n">
-        <v>266838.5752058922</v>
+        <v>266838.5752058923</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,22 +26372,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>720985.2833793792</v>
+        <v>720985.2833793794</v>
       </c>
       <c r="F3" t="n">
-        <v>212048.2126521544</v>
+        <v>212048.2126521528</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>5.223048447078327e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-5.583523219441609e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>183669.0093792219</v>
+        <v>183669.0093792258</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>146960.3591674184</v>
+        <v>146960.3591674186</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
@@ -26424,40 +26424,40 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>23899.76556585628</v>
+        <v>23899.7655658564</v>
       </c>
       <c r="F4" t="n">
-        <v>5781.971894855034</v>
+        <v>5781.971894855201</v>
       </c>
       <c r="G4" t="n">
-        <v>5781.971894855047</v>
+        <v>5781.9718948552</v>
       </c>
       <c r="H4" t="n">
-        <v>5781.971894855003</v>
+        <v>5781.971894855195</v>
       </c>
       <c r="I4" t="n">
-        <v>5781.971894855036</v>
+        <v>5781.971894855413</v>
       </c>
       <c r="J4" t="n">
-        <v>5067.592601670445</v>
+        <v>5067.592601670359</v>
       </c>
       <c r="K4" t="n">
-        <v>5067.592601670442</v>
+        <v>5067.592601670438</v>
       </c>
       <c r="L4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.59260167044</v>
       </c>
       <c r="M4" t="n">
         <v>5067.592601670438</v>
       </c>
       <c r="N4" t="n">
-        <v>13058.45186476393</v>
+        <v>13058.45186476391</v>
       </c>
       <c r="O4" t="n">
         <v>13058.45186476391</v>
       </c>
       <c r="P4" t="n">
-        <v>13058.4518647639</v>
+        <v>13058.45186476391</v>
       </c>
     </row>
     <row r="5">
@@ -26470,25 +26470,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>95081.87666815524</v>
+        <v>95081.87666815525</v>
       </c>
       <c r="F5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="G5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="H5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="I5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="J5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-583756.1378987872</v>
+        <v>-583993.1178730896</v>
       </c>
       <c r="C6" t="n">
-        <v>-17085.0087852486</v>
+        <v>-17085.00878524882</v>
       </c>
       <c r="D6" t="n">
-        <v>-17085.00878524859</v>
+        <v>-17085.00878524868</v>
       </c>
       <c r="E6" t="n">
-        <v>-584013.1061419443</v>
+        <v>-584096.8350322095</v>
       </c>
       <c r="F6" t="n">
-        <v>-56588.25644071632</v>
+        <v>-56624.15342257911</v>
       </c>
       <c r="G6" t="n">
-        <v>155459.9562114382</v>
+        <v>155424.0592295737</v>
       </c>
       <c r="H6" t="n">
-        <v>155459.9562114376</v>
+        <v>155424.0592295737</v>
       </c>
       <c r="I6" t="n">
-        <v>155459.9562114386</v>
+        <v>155424.0592295756</v>
       </c>
       <c r="J6" t="n">
-        <v>-27536.48690554746</v>
+        <v>-27571.224830987</v>
       </c>
       <c r="K6" t="n">
-        <v>156132.5224736744</v>
+        <v>156097.7845482389</v>
       </c>
       <c r="L6" t="n">
-        <v>156132.5224736744</v>
+        <v>156097.7845482388</v>
       </c>
       <c r="M6" t="n">
-        <v>31825.31108353728</v>
+        <v>31790.57315810153</v>
       </c>
       <c r="N6" t="n">
-        <v>131188.2894935813</v>
+        <v>131188.2894935814</v>
       </c>
       <c r="O6" t="n">
-        <v>150616.0074872128</v>
+        <v>150616.0074872129</v>
       </c>
       <c r="P6" t="n">
-        <v>150616.0074872129</v>
+        <v>150616.007487213</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.184639007818955e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26735,28 +26735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716384</v>
       </c>
       <c r="G3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716384</v>
       </c>
       <c r="H3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716384</v>
       </c>
       <c r="I3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716382</v>
       </c>
       <c r="J3" t="n">
         <v>1367.975500341674</v>
@@ -26790,7 +26790,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545557</v>
@@ -26811,7 +26811,7 @@
         <v>1173.104351895088</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.184639007818955e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,28 +26966,28 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762114</v>
+        <v>712.0330363762115</v>
       </c>
       <c r="F3" t="n">
-        <v>268.2643481230882</v>
+        <v>268.2643481230862</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-1.547503050952506e-12</v>
       </c>
       <c r="J3" t="n">
-        <v>9.934451625287238</v>
+        <v>9.934451625292695</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.8170791405321</v>
+        <v>498.8170791405323</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>673.8912089591163</v>
+        <v>673.8912089591158</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405321</v>
+        <v>498.8170791405323</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.184639007818955e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405321</v>
+        <v>498.8170791405323</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>172.6503771986551</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,10 +27388,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>179.3784478157672</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>102.1386534201254</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>188.6432677843893</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,22 +27619,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>109.9629949479146</v>
+        <v>98.80812404455099</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27789,10 +27789,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853699</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>94.13991699917844</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>58.83083962672745</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>62.16124032593325</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27907,13 +27907,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>230.7984815770166</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,19 +28020,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>5.899003940725066</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,28 +28053,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>141.68743719657</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,10 +28087,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>6.184639007818955e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.868755495176652e-12</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6.184639007818955e-14</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>6.184639007818955e-14</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28150,13 +28150,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>6.184639007818955e-14</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>6.184639007818955e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28387,7 +28387,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28518,7 +28518,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>-5.448550654941484e-13</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>-6.184639007818955e-14</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-1.668609388591958e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31516,10 +31516,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31531,28 +31531,28 @@
         <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
         <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472037</v>
@@ -31592,13 +31592,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
         <v>76.7639270839648</v>
@@ -31613,7 +31613,7 @@
         <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
         <v>193.3156655923048</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31674,16 +31674,16 @@
         <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,19 +31692,19 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377429</v>
+        <v>5.459461502377421</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122286</v>
+        <v>55.91171011122277</v>
       </c>
       <c r="I14" t="n">
-        <v>210.475889570406</v>
+        <v>210.4758895704057</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874068</v>
+        <v>463.3649706874061</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830435</v>
+        <v>694.4639760830424</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364269</v>
+        <v>861.5439710364255</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293314</v>
+        <v>958.6336695293299</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229614</v>
+        <v>974.1453645229599</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086957</v>
+        <v>919.8578442086944</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687528</v>
+        <v>785.0773883687517</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148611</v>
+        <v>589.5604233148601</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987165</v>
+        <v>342.9428985987159</v>
       </c>
       <c r="S14" t="n">
-        <v>124.4074789854258</v>
+        <v>124.4074789854256</v>
       </c>
       <c r="T14" t="n">
-        <v>23.89879272665721</v>
+        <v>23.89879272665717</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4367569201901942</v>
+        <v>0.4367569201901936</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540907</v>
+        <v>2.921069425540903</v>
       </c>
       <c r="H15" t="n">
-        <v>28.21138103088192</v>
+        <v>28.21138103088188</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32081,34 +32081,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>187.8760176396484</v>
+        <v>634.2436048745719</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504305</v>
+        <v>740.1323715504294</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927642</v>
+        <v>759.7214730927631</v>
       </c>
       <c r="O15" t="n">
-        <v>694.996724242621</v>
+        <v>694.9967242426198</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982457</v>
+        <v>344.3187317059997</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286954</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862163</v>
+        <v>54.25758340862155</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821091</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1921756201013755</v>
+        <v>0.1921756201013752</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291844</v>
+        <v>2.448926481291841</v>
       </c>
       <c r="H16" t="n">
-        <v>21.77318271548569</v>
+        <v>21.77318271548565</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284931</v>
+        <v>73.64589818284919</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273334</v>
+        <v>173.1391022273331</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900888</v>
+        <v>284.5207311900883</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640621</v>
+        <v>364.0885788640615</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265024</v>
+        <v>383.8803574265019</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416877</v>
+        <v>374.7525405416871</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465965</v>
+        <v>346.1446266465959</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282426</v>
+        <v>296.1865264282421</v>
       </c>
       <c r="Q16" t="n">
-        <v>205.0641983561744</v>
+        <v>205.064198356174</v>
       </c>
       <c r="R16" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860858</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851331</v>
+        <v>42.67810967851324</v>
       </c>
       <c r="T16" t="n">
-        <v>10.46359496551969</v>
+        <v>10.46359496551968</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1335778080704644</v>
+        <v>0.1335778080704642</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.459461502377429</v>
+        <v>5.459461502377421</v>
       </c>
       <c r="H17" t="n">
-        <v>55.91171011122286</v>
+        <v>55.91171011122277</v>
       </c>
       <c r="I17" t="n">
-        <v>210.475889570406</v>
+        <v>210.4758895704057</v>
       </c>
       <c r="J17" t="n">
-        <v>463.3649706874068</v>
+        <v>463.3649706874061</v>
       </c>
       <c r="K17" t="n">
-        <v>694.4639760830435</v>
+        <v>694.4639760830424</v>
       </c>
       <c r="L17" t="n">
-        <v>861.5439710364269</v>
+        <v>861.5439710364255</v>
       </c>
       <c r="M17" t="n">
-        <v>958.6336695293314</v>
+        <v>958.6336695293299</v>
       </c>
       <c r="N17" t="n">
-        <v>974.1453645229614</v>
+        <v>974.1453645229599</v>
       </c>
       <c r="O17" t="n">
-        <v>919.8578442086957</v>
+        <v>919.8578442086944</v>
       </c>
       <c r="P17" t="n">
-        <v>785.0773883687528</v>
+        <v>785.0773883687517</v>
       </c>
       <c r="Q17" t="n">
-        <v>589.5604233148611</v>
+        <v>589.5604233148601</v>
       </c>
       <c r="R17" t="n">
-        <v>342.9428985987165</v>
+        <v>342.9428985987159</v>
       </c>
       <c r="S17" t="n">
-        <v>124.4074789854258</v>
+        <v>124.4074789854256</v>
       </c>
       <c r="T17" t="n">
-        <v>23.89879272665721</v>
+        <v>23.89879272665717</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4367569201901942</v>
+        <v>0.4367569201901936</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.921069425540907</v>
+        <v>2.921069425540903</v>
       </c>
       <c r="H18" t="n">
-        <v>28.21138103088192</v>
+        <v>28.21138103088188</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735815</v>
       </c>
       <c r="K18" t="n">
-        <v>471.6886536848227</v>
+        <v>471.688653684822</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745719</v>
       </c>
       <c r="M18" t="n">
-        <v>740.1323715504305</v>
+        <v>740.1323715504294</v>
       </c>
       <c r="N18" t="n">
-        <v>759.7214730927642</v>
+        <v>759.7214730927631</v>
       </c>
       <c r="O18" t="n">
-        <v>694.996724242621</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>506.1607420902301</v>
+        <v>180.8424455441239</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286949</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.25758340862163</v>
+        <v>54.25758340862155</v>
       </c>
       <c r="T18" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821091</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1921756201013755</v>
+        <v>0.1921756201013752</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.448926481291844</v>
+        <v>2.448926481291841</v>
       </c>
       <c r="H19" t="n">
-        <v>21.77318271548569</v>
+        <v>21.77318271548565</v>
       </c>
       <c r="I19" t="n">
-        <v>73.64589818284931</v>
+        <v>73.64589818284919</v>
       </c>
       <c r="J19" t="n">
-        <v>173.1391022273334</v>
+        <v>173.1391022273331</v>
       </c>
       <c r="K19" t="n">
-        <v>284.5207311900888</v>
+        <v>284.5207311900883</v>
       </c>
       <c r="L19" t="n">
-        <v>364.0885788640621</v>
+        <v>364.0885788640615</v>
       </c>
       <c r="M19" t="n">
-        <v>383.8803574265024</v>
+        <v>383.8803574265019</v>
       </c>
       <c r="N19" t="n">
-        <v>374.7525405416877</v>
+        <v>374.7525405416871</v>
       </c>
       <c r="O19" t="n">
-        <v>346.1446266465965</v>
+        <v>346.1446266465959</v>
       </c>
       <c r="P19" t="n">
-        <v>296.1865264282426</v>
+        <v>296.1865264282421</v>
       </c>
       <c r="Q19" t="n">
-        <v>205.0641983561744</v>
+        <v>205.064198356174</v>
       </c>
       <c r="R19" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860858</v>
       </c>
       <c r="S19" t="n">
-        <v>42.67810967851331</v>
+        <v>42.67810967851324</v>
       </c>
       <c r="T19" t="n">
-        <v>10.46359496551969</v>
+        <v>10.46359496551968</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1335778080704644</v>
+        <v>0.1335778080704642</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377421</v>
       </c>
       <c r="H20" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122277</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704061</v>
+        <v>210.4758895704057</v>
       </c>
       <c r="J20" t="n">
-        <v>463.364970687407</v>
+        <v>463.3649706874061</v>
       </c>
       <c r="K20" t="n">
-        <v>694.4639760830438</v>
+        <v>694.4639760830424</v>
       </c>
       <c r="L20" t="n">
-        <v>861.5439710364274</v>
+        <v>861.5439710364255</v>
       </c>
       <c r="M20" t="n">
-        <v>958.6336695293319</v>
+        <v>958.6336695293299</v>
       </c>
       <c r="N20" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229599</v>
       </c>
       <c r="O20" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086944</v>
       </c>
       <c r="P20" t="n">
-        <v>785.0773883687533</v>
+        <v>785.0773883687517</v>
       </c>
       <c r="Q20" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148601</v>
       </c>
       <c r="R20" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987159</v>
       </c>
       <c r="S20" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854256</v>
       </c>
       <c r="T20" t="n">
-        <v>23.89879272665722</v>
+        <v>23.89879272665717</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.4367569201901936</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.921069425540908</v>
+        <v>2.921069425540903</v>
       </c>
       <c r="H21" t="n">
-        <v>28.21138103088193</v>
+        <v>28.21138103088188</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>275.9770021735821</v>
+        <v>275.9770021735815</v>
       </c>
       <c r="K21" t="n">
-        <v>471.688653684823</v>
+        <v>471.688653684822</v>
       </c>
       <c r="L21" t="n">
-        <v>333.2691884316987</v>
+        <v>634.2436048745719</v>
       </c>
       <c r="M21" t="n">
-        <v>740.1323715504309</v>
+        <v>740.1323715504294</v>
       </c>
       <c r="N21" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>694.9967242426213</v>
+        <v>394.022307799753</v>
       </c>
       <c r="P21" t="n">
-        <v>557.796143198246</v>
+        <v>557.7961431982449</v>
       </c>
       <c r="Q21" t="n">
-        <v>372.8719498286956</v>
+        <v>372.8719498286949</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.25758340862166</v>
+        <v>54.25758340862155</v>
       </c>
       <c r="T21" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821091</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.1921756201013752</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291841</v>
       </c>
       <c r="H22" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548565</v>
       </c>
       <c r="I22" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284919</v>
       </c>
       <c r="J22" t="n">
-        <v>173.1391022273335</v>
+        <v>173.1391022273331</v>
       </c>
       <c r="K22" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900883</v>
       </c>
       <c r="L22" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640615</v>
       </c>
       <c r="M22" t="n">
-        <v>383.8803574265026</v>
+        <v>383.8803574265019</v>
       </c>
       <c r="N22" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416871</v>
       </c>
       <c r="O22" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465959</v>
       </c>
       <c r="P22" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282421</v>
       </c>
       <c r="Q22" t="n">
-        <v>205.0641983561745</v>
+        <v>205.064198356174</v>
       </c>
       <c r="R22" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860858</v>
       </c>
       <c r="S22" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851324</v>
       </c>
       <c r="T22" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551968</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704642</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.459461502377429</v>
+        <v>5.459461502377409</v>
       </c>
       <c r="H23" t="n">
-        <v>55.91171011122286</v>
+        <v>55.91171011122265</v>
       </c>
       <c r="I23" t="n">
-        <v>210.475889570406</v>
+        <v>210.4758895704053</v>
       </c>
       <c r="J23" t="n">
-        <v>463.3649706874068</v>
+        <v>463.364970687405</v>
       </c>
       <c r="K23" t="n">
-        <v>694.4639760830435</v>
+        <v>694.4639760830408</v>
       </c>
       <c r="L23" t="n">
-        <v>861.5439710364269</v>
+        <v>861.5439710364237</v>
       </c>
       <c r="M23" t="n">
-        <v>958.6336695293314</v>
+        <v>958.6336695293279</v>
       </c>
       <c r="N23" t="n">
-        <v>974.1453645229614</v>
+        <v>974.1453645229578</v>
       </c>
       <c r="O23" t="n">
-        <v>919.8578442086957</v>
+        <v>919.8578442086924</v>
       </c>
       <c r="P23" t="n">
-        <v>785.0773883687528</v>
+        <v>785.07738836875</v>
       </c>
       <c r="Q23" t="n">
-        <v>589.5604233148611</v>
+        <v>589.5604233148588</v>
       </c>
       <c r="R23" t="n">
-        <v>342.9428985987165</v>
+        <v>342.9428985987152</v>
       </c>
       <c r="S23" t="n">
-        <v>124.4074789854258</v>
+        <v>124.4074789854253</v>
       </c>
       <c r="T23" t="n">
-        <v>23.89879272665721</v>
+        <v>23.89879272665712</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4367569201901942</v>
+        <v>0.4367569201901926</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.921069425540907</v>
+        <v>2.921069425540896</v>
       </c>
       <c r="H24" t="n">
-        <v>28.21138103088192</v>
+        <v>28.21138103088182</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>275.977002173581</v>
       </c>
       <c r="K24" t="n">
-        <v>471.6886536848227</v>
+        <v>471.688653684821</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745706</v>
       </c>
       <c r="M24" t="n">
-        <v>455.6067946997409</v>
+        <v>672.0481308502419</v>
       </c>
       <c r="N24" t="n">
-        <v>759.7214730927642</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>694.996724242621</v>
+        <v>694.9967242426184</v>
       </c>
       <c r="P24" t="n">
-        <v>557.7961431982457</v>
+        <v>557.7961431982436</v>
       </c>
       <c r="Q24" t="n">
-        <v>372.8719498286954</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.25758340862163</v>
+        <v>54.25758340862144</v>
       </c>
       <c r="T24" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821089</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1921756201013755</v>
+        <v>0.1921756201013748</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.448926481291844</v>
+        <v>2.448926481291835</v>
       </c>
       <c r="H25" t="n">
-        <v>21.77318271548569</v>
+        <v>21.77318271548561</v>
       </c>
       <c r="I25" t="n">
-        <v>73.64589818284931</v>
+        <v>73.64589818284904</v>
       </c>
       <c r="J25" t="n">
-        <v>173.1391022273334</v>
+        <v>173.1391022273327</v>
       </c>
       <c r="K25" t="n">
-        <v>284.5207311900888</v>
+        <v>284.5207311900877</v>
       </c>
       <c r="L25" t="n">
-        <v>364.0885788640621</v>
+        <v>364.0885788640607</v>
       </c>
       <c r="M25" t="n">
-        <v>383.8803574265024</v>
+        <v>383.880357426501</v>
       </c>
       <c r="N25" t="n">
-        <v>374.7525405416877</v>
+        <v>374.7525405416863</v>
       </c>
       <c r="O25" t="n">
-        <v>346.1446266465965</v>
+        <v>346.1446266465952</v>
       </c>
       <c r="P25" t="n">
-        <v>296.1865264282426</v>
+        <v>296.1865264282415</v>
       </c>
       <c r="Q25" t="n">
-        <v>205.0641983561744</v>
+        <v>205.0641983561736</v>
       </c>
       <c r="R25" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860856</v>
       </c>
       <c r="S25" t="n">
-        <v>42.67810967851331</v>
+        <v>42.67810967851315</v>
       </c>
       <c r="T25" t="n">
-        <v>10.46359496551969</v>
+        <v>10.46359496551966</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1335778080704644</v>
+        <v>0.1335778080704639</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,22 +33026,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>468.3778278510266</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,34 +33251,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>543.0832917018711</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33497,31 +33497,31 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,31 +33734,31 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,31 +33971,31 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>229.6463482471742</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34208,7 +34208,7 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>153.972377511982</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34217,10 +34217,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34229,7 +34229,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34445,10 +34445,10 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,10 +34460,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35179,7 +35179,7 @@
         <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
         <v>478.8956552492238</v>
@@ -35188,7 +35188,7 @@
         <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.997506289869</v>
@@ -35261,10 +35261,10 @@
         <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
@@ -35331,10 +35331,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>767.9862627757187</v>
+        <v>556.536736768061</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607205</v>
+        <v>333.6317139898169</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380629</v>
+        <v>474.3741250380619</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664397</v>
+        <v>625.7775560664384</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020587</v>
+        <v>728.2874363020572</v>
       </c>
       <c r="N14" t="n">
-        <v>744.7323009263705</v>
+        <v>744.7323009263689</v>
       </c>
       <c r="O14" t="n">
-        <v>741.0722806160941</v>
+        <v>689.7596327870076</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134833</v>
+        <v>553.8443926134821</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404115</v>
+        <v>367.2547334404106</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845844</v>
+        <v>127.3573607845838</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>49.32163785977419</v>
+        <v>495.6892250946977</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284122</v>
+        <v>597.998337628411</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094309</v>
+        <v>628.3797610094298</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981765</v>
+        <v>552.4004797981754</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839154</v>
+        <v>210.3443242916694</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426739</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066061</v>
+        <v>79.77992211066035</v>
       </c>
       <c r="K16" t="n">
-        <v>262.251239364206</v>
+        <v>262.2512393642055</v>
       </c>
       <c r="L16" t="n">
-        <v>391.6786041243782</v>
+        <v>391.6786041243777</v>
       </c>
       <c r="M16" t="n">
-        <v>423.464234388343</v>
+        <v>423.4642343883415</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209134</v>
+        <v>418.8847129209157</v>
       </c>
       <c r="O16" t="n">
-        <v>370.7297545606361</v>
+        <v>370.7297545606356</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931361</v>
+        <v>293.4650856931356</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.90215510448</v>
+        <v>118.9021551044797</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>282.3190661607205</v>
+        <v>282.3190661607198</v>
       </c>
       <c r="K17" t="n">
-        <v>474.3741250380629</v>
+        <v>474.3741250380619</v>
       </c>
       <c r="L17" t="n">
-        <v>625.7775560664397</v>
+        <v>625.7775560664384</v>
       </c>
       <c r="M17" t="n">
-        <v>728.2874363020587</v>
+        <v>728.2874363020572</v>
       </c>
       <c r="N17" t="n">
-        <v>744.7323009263705</v>
+        <v>796.044948755466</v>
       </c>
       <c r="O17" t="n">
-        <v>689.759632787009</v>
+        <v>689.7596327870076</v>
       </c>
       <c r="P17" t="n">
-        <v>553.8443926134833</v>
+        <v>553.8443926134821</v>
       </c>
       <c r="Q17" t="n">
-        <v>367.2547334404115</v>
+        <v>367.2547334404106</v>
       </c>
       <c r="R17" t="n">
-        <v>178.6700086136704</v>
+        <v>127.3573607845838</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>149.1393755069148</v>
       </c>
       <c r="K18" t="n">
-        <v>333.8472147104637</v>
+        <v>333.847214710463</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>495.6892250946977</v>
       </c>
       <c r="M18" t="n">
-        <v>597.9983376284122</v>
+        <v>597.998337628411</v>
       </c>
       <c r="N18" t="n">
-        <v>628.3797610094309</v>
+        <v>628.3797610094298</v>
       </c>
       <c r="O18" t="n">
-        <v>552.4004797981765</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>372.1863346758999</v>
+        <v>46.86803812979367</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>232.8901757426734</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>79.77992211066061</v>
+        <v>79.77992211066035</v>
       </c>
       <c r="K19" t="n">
-        <v>262.251239364206</v>
+        <v>262.2512393642055</v>
       </c>
       <c r="L19" t="n">
-        <v>391.6786041243782</v>
+        <v>391.6786041243777</v>
       </c>
       <c r="M19" t="n">
-        <v>423.464234388343</v>
+        <v>423.4642343883424</v>
       </c>
       <c r="N19" t="n">
-        <v>418.8847129209163</v>
+        <v>418.8847129209157</v>
       </c>
       <c r="O19" t="n">
-        <v>370.7297545606361</v>
+        <v>370.7297545606356</v>
       </c>
       <c r="P19" t="n">
-        <v>293.4650856931361</v>
+        <v>293.4650856931356</v>
       </c>
       <c r="Q19" t="n">
-        <v>118.90215510448</v>
+        <v>118.9021551044797</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>333.6317139898036</v>
+        <v>282.3190661607198</v>
       </c>
       <c r="K20" t="n">
-        <v>474.3741250380633</v>
+        <v>474.3741250380619</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7775560664402</v>
+        <v>625.7775560664384</v>
       </c>
       <c r="M20" t="n">
-        <v>728.2874363020592</v>
+        <v>728.2874363020572</v>
       </c>
       <c r="N20" t="n">
-        <v>744.732300926371</v>
+        <v>744.7323009263689</v>
       </c>
       <c r="O20" t="n">
-        <v>689.7596327870094</v>
+        <v>689.7596327870076</v>
       </c>
       <c r="P20" t="n">
-        <v>553.8443926134837</v>
+        <v>553.8443926134821</v>
       </c>
       <c r="Q20" t="n">
-        <v>367.2547334404118</v>
+        <v>367.2547334404106</v>
       </c>
       <c r="R20" t="n">
-        <v>127.3573607845846</v>
+        <v>178.6700086136805</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>149.1393755069154</v>
+        <v>149.1393755069148</v>
       </c>
       <c r="K21" t="n">
-        <v>333.847214710464</v>
+        <v>333.847214710463</v>
       </c>
       <c r="L21" t="n">
-        <v>194.7148086518245</v>
+        <v>495.6892250946977</v>
       </c>
       <c r="M21" t="n">
-        <v>597.9983376284126</v>
+        <v>597.998337628411</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>552.4004797981769</v>
+        <v>251.4260633553086</v>
       </c>
       <c r="P21" t="n">
-        <v>423.8217357839158</v>
+        <v>423.8217357839146</v>
       </c>
       <c r="Q21" t="n">
-        <v>232.8901757426741</v>
+        <v>232.8901757426734</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211066035</v>
       </c>
       <c r="K22" t="n">
-        <v>262.2512393642061</v>
+        <v>262.2512393642055</v>
       </c>
       <c r="L22" t="n">
-        <v>391.6786041243784</v>
+        <v>391.6786041243777</v>
       </c>
       <c r="M22" t="n">
-        <v>423.4642343883432</v>
+        <v>423.4642343883424</v>
       </c>
       <c r="N22" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209157</v>
       </c>
       <c r="O22" t="n">
-        <v>370.7297545606363</v>
+        <v>370.7297545606356</v>
       </c>
       <c r="P22" t="n">
-        <v>293.4650856931362</v>
+        <v>293.4650856931356</v>
       </c>
       <c r="Q22" t="n">
-        <v>118.9021551044801</v>
+        <v>118.9021551044797</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>282.3190661607205</v>
+        <v>282.3190661607188</v>
       </c>
       <c r="K23" t="n">
-        <v>474.3741250380629</v>
+        <v>474.3741250380603</v>
       </c>
       <c r="L23" t="n">
-        <v>625.7775560664397</v>
+        <v>625.7775560664365</v>
       </c>
       <c r="M23" t="n">
-        <v>728.2874363020587</v>
+        <v>728.2874363020552</v>
       </c>
       <c r="N23" t="n">
-        <v>744.7323009263705</v>
+        <v>744.7323009263669</v>
       </c>
       <c r="O23" t="n">
-        <v>689.759632787009</v>
+        <v>741.072280616118</v>
       </c>
       <c r="P23" t="n">
-        <v>605.1570404425685</v>
+        <v>553.8443926134805</v>
       </c>
       <c r="Q23" t="n">
-        <v>367.2547334404115</v>
+        <v>367.2547334404093</v>
       </c>
       <c r="R23" t="n">
-        <v>127.3573607845844</v>
+        <v>127.3573607845831</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>149.1393755069143</v>
       </c>
       <c r="K24" t="n">
-        <v>333.8472147104637</v>
+        <v>333.847214710462</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>495.6892250946964</v>
       </c>
       <c r="M24" t="n">
-        <v>313.4727607777226</v>
+        <v>529.9140969282237</v>
       </c>
       <c r="N24" t="n">
-        <v>628.3797610094309</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>552.4004797981765</v>
+        <v>552.4004797981739</v>
       </c>
       <c r="P24" t="n">
-        <v>423.8217357839154</v>
+        <v>423.8217357839134</v>
       </c>
       <c r="Q24" t="n">
-        <v>232.8901757426739</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>79.77992211066061</v>
+        <v>79.77992211065995</v>
       </c>
       <c r="K25" t="n">
-        <v>262.251239364206</v>
+        <v>262.2512393642048</v>
       </c>
       <c r="L25" t="n">
-        <v>391.6786041243782</v>
+        <v>391.6786041243769</v>
       </c>
       <c r="M25" t="n">
-        <v>423.464234388343</v>
+        <v>423.4642343883416</v>
       </c>
       <c r="N25" t="n">
-        <v>418.8847129209163</v>
+        <v>418.8847129209149</v>
       </c>
       <c r="O25" t="n">
-        <v>370.7297545606361</v>
+        <v>370.7297545606348</v>
       </c>
       <c r="P25" t="n">
-        <v>293.4650856931361</v>
+        <v>293.465085693135</v>
       </c>
       <c r="Q25" t="n">
-        <v>118.90215510448</v>
+        <v>118.9021551044792</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396425</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>334.4034204366964</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37081,7 +37081,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>91.80490927281522</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>27.13475084531533</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37865,10 +37865,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37877,7 +37877,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,10 +38108,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
